--- a/files/Internships 2019.xlsx
+++ b/files/Internships 2019.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhay\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126821A-F3DD-4643-A8B1-A7E5693F7485}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940" xr2:uid="{8DCC13F3-0041-46B6-936C-925AA50599DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Company</t>
   </si>
@@ -171,12 +170,42 @@
   </si>
   <si>
     <t>Zappos</t>
+  </si>
+  <si>
+    <t>no intern application, email/linkedin directly</t>
+  </si>
+  <si>
+    <t>Positions</t>
+  </si>
+  <si>
+    <t>Data Scientist Intern (3: algorithms analytics inference)</t>
+  </si>
+  <si>
+    <t>none?</t>
+  </si>
+  <si>
+    <t>logistics analyst</t>
+  </si>
+  <si>
+    <t>Data Scientist, PM intern</t>
+  </si>
+  <si>
+    <t>UCD alumni recruiters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Scientist </t>
+  </si>
+  <si>
+    <t>Bain Consulting</t>
+  </si>
+  <si>
+    <t>Accenture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,14 +260,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,95 +582,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B032B316-C3BC-4D19-A6C4-A842E822EA60}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="45.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -650,54 +692,72 @@
       <c r="C10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -705,8 +765,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -714,8 +774,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -723,8 +783,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -732,10 +792,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -743,77 +803,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-      <c r="B27" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
